--- a/sessions/L6_data/Performancetables_130249/2022-2023/ks4_meta.xlsx
+++ b/sessions/L6_data/Performancetables_130249/2022-2023/ks4_meta.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/katy_hatch_education_gov_uk/Documents/Documents/CSCP/Test evidence/MR28 25 April 24/Real ks4/meta files/2022-2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QM_Fork\sessions\L6_data\Performancetables_130249\2022-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BF07530-9DC0-4350-8B28-A2756650484E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8775C1D-3760-4C35-B291-ABB068B786FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27360" yWindow="2340" windowWidth="29970" windowHeight="19050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16275" yWindow="1020" windowWidth="30735" windowHeight="19050" xr2:uid="{7ABE433D-8464-408C-B588-B64A18547C13}"/>
   </bookViews>
   <sheets>
     <sheet name="_ks4_meta_2023" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">_ks4_meta_2023!$A$1:$XEY$516</definedName>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="1037">
   <si>
     <t>Column</t>
   </si>
@@ -3658,10 +3660,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3713,7 +3718,7 @@
     <cellStyle name="Normal 4 3" xfId="52" xr:uid="{024FAEBB-8D7C-40C8-85A7-997BD86C7008}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Per cent" xfId="42" builtinId="5"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -4030,8 +4035,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY516"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="A330" sqref="A330:XFD330"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="1">
+      <selection activeCell="B488" sqref="B488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27840,4 +27848,239 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF22BB1-FE72-4A0A-B20A-4AD7CD01E387}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="e">
+        <f t="shared" ref="A2:A15" si="0">A1+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B6" t="s">
+        <v>816</v>
+      </c>
+      <c r="C6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B9" t="s">
+        <v>414</v>
+      </c>
+      <c r="C9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B10" t="s">
+        <v>788</v>
+      </c>
+      <c r="C10" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B11" t="s">
+        <v>825</v>
+      </c>
+      <c r="C11" t="s">
+        <v>835</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B12" t="s">
+        <v>830</v>
+      </c>
+      <c r="C12" t="s">
+        <v>984</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B13" t="s">
+        <v>937</v>
+      </c>
+      <c r="C13" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B14" t="s">
+        <v>942</v>
+      </c>
+      <c r="C14" t="s">
+        <v>990</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B15" t="s">
+        <v>947</v>
+      </c>
+      <c r="C15" t="s">
+        <v>995</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>